--- a/WebApi/Files/Countries_Leasing_Stats.xlsx
+++ b/WebApi/Files/Countries_Leasing_Stats.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joorak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\RahkarWeb\WebApi\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F3ECC-EE60-4E5E-84A3-D543CBEF48D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5315A325-4614-437D-8C27-8C2128169D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3188" yWindow="3188" windowWidth="18225" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1_" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1_!$A$1:$D$250</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="878">
   <si>
     <t>ISO3</t>
   </si>
@@ -1529,6 +1531,1134 @@
   </si>
   <si>
     <t>MarketShare</t>
+  </si>
+  <si>
+    <t>ISO2</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>افغانستان</t>
+  </si>
+  <si>
+    <t>آنگولا</t>
+  </si>
+  <si>
+    <t>آلبانی</t>
+  </si>
+  <si>
+    <t>آندورا</t>
+  </si>
+  <si>
+    <t>امارات متحده عربی</t>
+  </si>
+  <si>
+    <t>آرژانتین</t>
+  </si>
+  <si>
+    <t>ارمنستان</t>
+  </si>
+  <si>
+    <t>استرالیا</t>
+  </si>
+  <si>
+    <t>اتریش</t>
+  </si>
+  <si>
+    <t>آذربایجان</t>
+  </si>
+  <si>
+    <t>بلژیک</t>
+  </si>
+  <si>
+    <t>بنین</t>
+  </si>
+  <si>
+    <t>بورکینافاسو</t>
+  </si>
+  <si>
+    <t>بنگلادش</t>
+  </si>
+  <si>
+    <t>بلغارستان</t>
+  </si>
+  <si>
+    <t>بحرین</t>
+  </si>
+  <si>
+    <t>بوسنی و هرزگوین</t>
+  </si>
+  <si>
+    <t>بلاروس</t>
+  </si>
+  <si>
+    <t>بولیوی</t>
+  </si>
+  <si>
+    <t>برزیل</t>
+  </si>
+  <si>
+    <t>برونئی</t>
+  </si>
+  <si>
+    <t>بوتان</t>
+  </si>
+  <si>
+    <t>بوتسوانا</t>
+  </si>
+  <si>
+    <t>آفریقای مرکزی</t>
+  </si>
+  <si>
+    <t>کانادا</t>
+  </si>
+  <si>
+    <t>سوئیس</t>
+  </si>
+  <si>
+    <t>سویس</t>
+  </si>
+  <si>
+    <t>شیلی</t>
+  </si>
+  <si>
+    <t>چین</t>
+  </si>
+  <si>
+    <t>ساحل عاج</t>
+  </si>
+  <si>
+    <t>ساحل عاج (ساحل عاج)</t>
+  </si>
+  <si>
+    <t>کامرون</t>
+  </si>
+  <si>
+    <t>کنگو</t>
+  </si>
+  <si>
+    <t>کلمبیا</t>
+  </si>
+  <si>
+    <t>کاستاریکا</t>
+  </si>
+  <si>
+    <t>کوبا</t>
+  </si>
+  <si>
+    <t>قبرس</t>
+  </si>
+  <si>
+    <t>چک</t>
+  </si>
+  <si>
+    <t>جمهوری چک</t>
+  </si>
+  <si>
+    <t>آلمان</t>
+  </si>
+  <si>
+    <t>جیبوتی</t>
+  </si>
+  <si>
+    <t>جمهوری دومینیکن</t>
+  </si>
+  <si>
+    <t>دانمارک</t>
+  </si>
+  <si>
+    <t>دومینیکن</t>
+  </si>
+  <si>
+    <t>الجزایر</t>
+  </si>
+  <si>
+    <t>اکوادور</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>اریتره</t>
+  </si>
+  <si>
+    <t>اسپانیا</t>
+  </si>
+  <si>
+    <t>استونی</t>
+  </si>
+  <si>
+    <t>اتیوپی</t>
+  </si>
+  <si>
+    <t>فنلاند</t>
+  </si>
+  <si>
+    <t>فیجی</t>
+  </si>
+  <si>
+    <t>فرانسه</t>
+  </si>
+  <si>
+    <t>گابن</t>
+  </si>
+  <si>
+    <t>بریتانیا</t>
+  </si>
+  <si>
+    <t>انگلستان (بریتانیا)</t>
+  </si>
+  <si>
+    <t>گرجستان</t>
+  </si>
+  <si>
+    <t>غنا</t>
+  </si>
+  <si>
+    <t>جبل الطارق</t>
+  </si>
+  <si>
+    <t>گینه</t>
+  </si>
+  <si>
+    <t>گامبیا</t>
+  </si>
+  <si>
+    <t>گینه بیسائو</t>
+  </si>
+  <si>
+    <t>یونان</t>
+  </si>
+  <si>
+    <t>گواتمالا</t>
+  </si>
+  <si>
+    <t>گویان</t>
+  </si>
+  <si>
+    <t>هنگ کنگ</t>
+  </si>
+  <si>
+    <t>هندوراس</t>
+  </si>
+  <si>
+    <t>کرواسی</t>
+  </si>
+  <si>
+    <t>کرواسی (Hrvatska)</t>
+  </si>
+  <si>
+    <t>هائیتی</t>
+  </si>
+  <si>
+    <t>مجارستان</t>
+  </si>
+  <si>
+    <t>اندونزی</t>
+  </si>
+  <si>
+    <t>هند</t>
+  </si>
+  <si>
+    <t>ایرلند</t>
+  </si>
+  <si>
+    <t>ایران</t>
+  </si>
+  <si>
+    <t>عراق</t>
+  </si>
+  <si>
+    <t>ایسلند</t>
+  </si>
+  <si>
+    <t>ایتالیا</t>
+  </si>
+  <si>
+    <t>جامائیکا</t>
+  </si>
+  <si>
+    <t>اردن</t>
+  </si>
+  <si>
+    <t>ژاپن</t>
+  </si>
+  <si>
+    <t>قزاقستان</t>
+  </si>
+  <si>
+    <t>کنیا</t>
+  </si>
+  <si>
+    <t>قرقیزستان</t>
+  </si>
+  <si>
+    <t>کامبوج</t>
+  </si>
+  <si>
+    <t>کره جنوبی</t>
+  </si>
+  <si>
+    <t>کویت</t>
+  </si>
+  <si>
+    <t>لائوس</t>
+  </si>
+  <si>
+    <t>لبنان</t>
+  </si>
+  <si>
+    <t>لیبریا</t>
+  </si>
+  <si>
+    <t>لیبی</t>
+  </si>
+  <si>
+    <t>سنت لوسیا</t>
+  </si>
+  <si>
+    <t>لیختن‌اشتاین</t>
+  </si>
+  <si>
+    <t>لیختن اشتاین</t>
+  </si>
+  <si>
+    <t>سری‌لانکا</t>
+  </si>
+  <si>
+    <t>سری لانکا</t>
+  </si>
+  <si>
+    <t>لسوتو</t>
+  </si>
+  <si>
+    <t>لیتوانی</t>
+  </si>
+  <si>
+    <t>لوکزامبورگ</t>
+  </si>
+  <si>
+    <t>لتونی</t>
+  </si>
+  <si>
+    <t>ماکائو</t>
+  </si>
+  <si>
+    <t>مراکش</t>
+  </si>
+  <si>
+    <t>موناکو</t>
+  </si>
+  <si>
+    <t>مواناکو</t>
+  </si>
+  <si>
+    <t>مولداوی</t>
+  </si>
+  <si>
+    <t>جمهوری مولداوی</t>
+  </si>
+  <si>
+    <t>ماداگاسکار</t>
+  </si>
+  <si>
+    <t>مالدیو</t>
+  </si>
+  <si>
+    <t>مکزیک</t>
+  </si>
+  <si>
+    <t>مقدونیه (یوگسلاوی)</t>
+  </si>
+  <si>
+    <t>جمهوری مقدونیه(یوگسلاوی)</t>
+  </si>
+  <si>
+    <t>مالی</t>
+  </si>
+  <si>
+    <t>مالت</t>
+  </si>
+  <si>
+    <t>جزیره مالت</t>
+  </si>
+  <si>
+    <t>میانمار</t>
+  </si>
+  <si>
+    <t>مونته نگرو</t>
+  </si>
+  <si>
+    <t>مغولستان</t>
+  </si>
+  <si>
+    <t>موزامبیک</t>
+  </si>
+  <si>
+    <t>موریتانی</t>
+  </si>
+  <si>
+    <t>موریس</t>
+  </si>
+  <si>
+    <t>مالاوی</t>
+  </si>
+  <si>
+    <t>مالزی</t>
+  </si>
+  <si>
+    <t>نامیبیا</t>
+  </si>
+  <si>
+    <t>کالدونیای جدید</t>
+  </si>
+  <si>
+    <t>نیجر</t>
+  </si>
+  <si>
+    <t>نیجریه</t>
+  </si>
+  <si>
+    <t>نیکاراگوئه</t>
+  </si>
+  <si>
+    <t>هلند</t>
+  </si>
+  <si>
+    <t>نروژ</t>
+  </si>
+  <si>
+    <t>نپال</t>
+  </si>
+  <si>
+    <t>نائورو</t>
+  </si>
+  <si>
+    <t>نیوزیلند</t>
+  </si>
+  <si>
+    <t>عمان</t>
+  </si>
+  <si>
+    <t>پاکستان</t>
+  </si>
+  <si>
+    <t>پاناما</t>
+  </si>
+  <si>
+    <t>پرو</t>
+  </si>
+  <si>
+    <t>فیلیپین</t>
+  </si>
+  <si>
+    <t>پاپوآ  گینه نو</t>
+  </si>
+  <si>
+    <t>لهستان</t>
+  </si>
+  <si>
+    <t>پورتوریکو</t>
+  </si>
+  <si>
+    <t>کره شمالی</t>
+  </si>
+  <si>
+    <t>پرتغال</t>
+  </si>
+  <si>
+    <t>پاراگوئه</t>
+  </si>
+  <si>
+    <t>فلسطین</t>
+  </si>
+  <si>
+    <t>قطر</t>
+  </si>
+  <si>
+    <t>ریونیون</t>
+  </si>
+  <si>
+    <t>رومانی</t>
+  </si>
+  <si>
+    <t>روسیه</t>
+  </si>
+  <si>
+    <t>فدراسیون روسیه</t>
+  </si>
+  <si>
+    <t>رواندا</t>
+  </si>
+  <si>
+    <t>عربستان سعودی</t>
+  </si>
+  <si>
+    <t>سودان</t>
+  </si>
+  <si>
+    <t>سنگال</t>
+  </si>
+  <si>
+    <t>سنگاپور</t>
+  </si>
+  <si>
+    <t>سیرالئون</t>
+  </si>
+  <si>
+    <t>السالوادور</t>
+  </si>
+  <si>
+    <t>سن مارینو</t>
+  </si>
+  <si>
+    <t>سومالی</t>
+  </si>
+  <si>
+    <t>صربستان</t>
+  </si>
+  <si>
+    <t>صربستان و مونته نگرو</t>
+  </si>
+  <si>
+    <t>سودان جنوبی</t>
+  </si>
+  <si>
+    <t>سائوتومه و پرنسیپ</t>
+  </si>
+  <si>
+    <t>سورينام</t>
+  </si>
+  <si>
+    <t>اسلواکی</t>
+  </si>
+  <si>
+    <t>اسلوونی</t>
+  </si>
+  <si>
+    <t>سوئد</t>
+  </si>
+  <si>
+    <t>سوازیلند</t>
+  </si>
+  <si>
+    <t>سوریه</t>
+  </si>
+  <si>
+    <t>چاد</t>
+  </si>
+  <si>
+    <t>توگو</t>
+  </si>
+  <si>
+    <t>تایلند</t>
+  </si>
+  <si>
+    <t>تاجیکستان</t>
+  </si>
+  <si>
+    <t>ترکمنستان</t>
+  </si>
+  <si>
+    <t>تیمور شرقی</t>
+  </si>
+  <si>
+    <t>ترینیداد</t>
+  </si>
+  <si>
+    <t>توباگو</t>
+  </si>
+  <si>
+    <t>ترینیداد و توباگو</t>
+  </si>
+  <si>
+    <t>تونس</t>
+  </si>
+  <si>
+    <t>ترکیه</t>
+  </si>
+  <si>
+    <t>تایوان</t>
+  </si>
+  <si>
+    <t>تانزانیا</t>
+  </si>
+  <si>
+    <t>اوگاندا</t>
+  </si>
+  <si>
+    <t>اوکراین</t>
+  </si>
+  <si>
+    <t>اروگوئه</t>
+  </si>
+  <si>
+    <t>ایالات متحده آمریکا</t>
+  </si>
+  <si>
+    <t>ازبکستان</t>
+  </si>
+  <si>
+    <t>واتیکان</t>
+  </si>
+  <si>
+    <t>ونزوئلا</t>
+  </si>
+  <si>
+    <t>ویتنام</t>
+  </si>
+  <si>
+    <t>ساموآ</t>
+  </si>
+  <si>
+    <t>یمن</t>
+  </si>
+  <si>
+    <t>آفریقای جنوبی</t>
+  </si>
+  <si>
+    <t>زامبیا</t>
+  </si>
+  <si>
+    <t>زیمبابوه</t>
   </si>
 </sst>
 </file>
@@ -1895,11 +3025,3946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9728D77D-FDBD-4672-B995-67553790F7BE}">
+  <dimension ref="A1:F196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>685</v>
+      </c>
+      <c r="F4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6">
+        <v>4200</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7">
+        <v>14710</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>689</v>
+      </c>
+      <c r="F8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9">
+        <v>20950</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>691</v>
+      </c>
+      <c r="F10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>692</v>
+      </c>
+      <c r="F11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>696</v>
+      </c>
+      <c r="F15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>697</v>
+      </c>
+      <c r="F16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>699</v>
+      </c>
+      <c r="F18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>701</v>
+      </c>
+      <c r="F20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21">
+        <v>37480</v>
+      </c>
+      <c r="D21">
+        <v>2.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>702</v>
+      </c>
+      <c r="F21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>703</v>
+      </c>
+      <c r="F22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>705</v>
+      </c>
+      <c r="F24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>706</v>
+      </c>
+      <c r="F25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26">
+        <v>84070</v>
+      </c>
+      <c r="D26">
+        <v>4.8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>707</v>
+      </c>
+      <c r="F26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>709</v>
+      </c>
+      <c r="F27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>708</v>
+      </c>
+      <c r="F28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>710</v>
+      </c>
+      <c r="F29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30">
+        <v>181280</v>
+      </c>
+      <c r="D30">
+        <v>10.3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>711</v>
+      </c>
+      <c r="F30" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>712</v>
+      </c>
+      <c r="F31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>713</v>
+      </c>
+      <c r="F32" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>714</v>
+      </c>
+      <c r="F33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>715</v>
+      </c>
+      <c r="F34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>7790</v>
+      </c>
+      <c r="D35">
+        <v>0.4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>716</v>
+      </c>
+      <c r="F35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>717</v>
+      </c>
+      <c r="F36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>718</v>
+      </c>
+      <c r="F37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>719</v>
+      </c>
+      <c r="F38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>721</v>
+      </c>
+      <c r="F39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>720</v>
+      </c>
+      <c r="F40" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41">
+        <v>104040</v>
+      </c>
+      <c r="D41">
+        <v>5.9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>723</v>
+      </c>
+      <c r="F42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>724</v>
+      </c>
+      <c r="F43" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>725</v>
+      </c>
+      <c r="F44" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>726</v>
+      </c>
+      <c r="F45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>727</v>
+      </c>
+      <c r="F46" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>728</v>
+      </c>
+      <c r="F47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>729</v>
+      </c>
+      <c r="F48" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>730</v>
+      </c>
+      <c r="F49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50">
+        <v>43090</v>
+      </c>
+      <c r="D50">
+        <v>2.4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>731</v>
+      </c>
+      <c r="F50" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>732</v>
+      </c>
+      <c r="F51" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>733</v>
+      </c>
+      <c r="F52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>734</v>
+      </c>
+      <c r="F53" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>735</v>
+      </c>
+      <c r="F54" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55">
+        <v>48340</v>
+      </c>
+      <c r="D55">
+        <v>2.7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>736</v>
+      </c>
+      <c r="F55" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>737</v>
+      </c>
+      <c r="F56" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57">
+        <v>88280</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>739</v>
+      </c>
+      <c r="F57" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58">
+        <v>88280</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>738</v>
+      </c>
+      <c r="F58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>740</v>
+      </c>
+      <c r="F59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>741</v>
+      </c>
+      <c r="F60" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>742</v>
+      </c>
+      <c r="F61" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>743</v>
+      </c>
+      <c r="F62" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>744</v>
+      </c>
+      <c r="F63" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>745</v>
+      </c>
+      <c r="F64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
+        <v>340</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>746</v>
+      </c>
+      <c r="F65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>747</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>748</v>
+      </c>
+      <c r="F67" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>749</v>
+      </c>
+      <c r="F68" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>750</v>
+      </c>
+      <c r="F69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>751</v>
+      </c>
+      <c r="F70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>752</v>
+      </c>
+      <c r="F71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>753</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>754</v>
+      </c>
+      <c r="F73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>353</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>755</v>
+      </c>
+      <c r="F74" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75">
+        <v>48340</v>
+      </c>
+      <c r="D75">
+        <v>2.7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>756</v>
+      </c>
+      <c r="F75" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>757</v>
+      </c>
+      <c r="F76" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>758</v>
+      </c>
+      <c r="F77" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>359</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>759</v>
+      </c>
+      <c r="F78" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
+        <v>360</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>760</v>
+      </c>
+      <c r="F79" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80">
+        <v>45190</v>
+      </c>
+      <c r="D80">
+        <v>2.6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>761</v>
+      </c>
+      <c r="F80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>762</v>
+      </c>
+      <c r="F81" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>763</v>
+      </c>
+      <c r="F82" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83">
+        <v>55590</v>
+      </c>
+      <c r="D83">
+        <v>3.1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>764</v>
+      </c>
+      <c r="F83" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>367</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>765</v>
+      </c>
+      <c r="F84" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>766</v>
+      </c>
+      <c r="F85" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>767</v>
+      </c>
+      <c r="F86" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>768</v>
+      </c>
+      <c r="F87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88">
+        <v>40280</v>
+      </c>
+      <c r="D88">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E88" t="s">
+        <v>769</v>
+      </c>
+      <c r="F88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>374</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>770</v>
+      </c>
+      <c r="F89" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>375</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>771</v>
+      </c>
+      <c r="F90" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
+        <v>376</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>772</v>
+      </c>
+      <c r="F91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>773</v>
+      </c>
+      <c r="F92" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>378</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>774</v>
+      </c>
+      <c r="F93" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>775</v>
+      </c>
+      <c r="F94" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>777</v>
+      </c>
+      <c r="F95" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>776</v>
+      </c>
+      <c r="F96" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>381</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>779</v>
+      </c>
+      <c r="F97" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
+        <v>381</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>778</v>
+      </c>
+      <c r="F98" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>780</v>
+      </c>
+      <c r="F99" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>781</v>
+      </c>
+      <c r="F100" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>782</v>
+      </c>
+      <c r="F101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>385</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>783</v>
+      </c>
+      <c r="F102" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>784</v>
+      </c>
+      <c r="F103" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>785</v>
+      </c>
+      <c r="F104" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>787</v>
+      </c>
+      <c r="F105" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>786</v>
+      </c>
+      <c r="F106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>390</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>789</v>
+      </c>
+      <c r="F107" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>390</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>788</v>
+      </c>
+      <c r="F108" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>790</v>
+      </c>
+      <c r="F109" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>392</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>791</v>
+      </c>
+      <c r="F110" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
+      <c r="C111">
+        <v>63750</v>
+      </c>
+      <c r="D111">
+        <v>3.6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>792</v>
+      </c>
+      <c r="F111" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>794</v>
+      </c>
+      <c r="F112" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>395</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>793</v>
+      </c>
+      <c r="F113" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>795</v>
+      </c>
+      <c r="F114" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>797</v>
+      </c>
+      <c r="F115" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" t="s">
+        <v>397</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>796</v>
+      </c>
+      <c r="F116" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" t="s">
+        <v>398</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>798</v>
+      </c>
+      <c r="F117" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" t="s">
+        <v>399</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>799</v>
+      </c>
+      <c r="F118" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" t="s">
+        <v>400</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>800</v>
+      </c>
+      <c r="F119" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" t="s">
+        <v>402</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>801</v>
+      </c>
+      <c r="F120" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" t="s">
+        <v>403</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>802</v>
+      </c>
+      <c r="F121" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" t="s">
+        <v>406</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>803</v>
+      </c>
+      <c r="F122" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>804</v>
+      </c>
+      <c r="F123" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>805</v>
+      </c>
+      <c r="F124" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>806</v>
+      </c>
+      <c r="F125" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s">
+        <v>411</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>807</v>
+      </c>
+      <c r="F126" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>808</v>
+      </c>
+      <c r="F127" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" t="s">
+        <v>414</v>
+      </c>
+      <c r="C128">
+        <v>3680</v>
+      </c>
+      <c r="D128">
+        <v>0.2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>809</v>
+      </c>
+      <c r="F128" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>810</v>
+      </c>
+      <c r="F129" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" t="s">
+        <v>417</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>811</v>
+      </c>
+      <c r="F130" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>812</v>
+      </c>
+      <c r="F131" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>813</v>
+      </c>
+      <c r="F132" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" t="s">
+        <v>420</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>814</v>
+      </c>
+      <c r="F133" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" t="s">
+        <v>421</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>815</v>
+      </c>
+      <c r="F134" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" t="s">
+        <v>422</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>816</v>
+      </c>
+      <c r="F135" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" t="s">
+        <v>423</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>817</v>
+      </c>
+      <c r="F136" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" t="s">
+        <v>424</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>818</v>
+      </c>
+      <c r="F137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" t="s">
+        <v>426</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>819</v>
+      </c>
+      <c r="F138" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>427</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>820</v>
+      </c>
+      <c r="F139" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" t="s">
+        <v>429</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>821</v>
+      </c>
+      <c r="F140" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>822</v>
+      </c>
+      <c r="F141" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>823</v>
+      </c>
+      <c r="F142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>824</v>
+      </c>
+      <c r="F143" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>184</v>
+      </c>
+      <c r="B144" t="s">
+        <v>433</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>825</v>
+      </c>
+      <c r="F144" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>826</v>
+      </c>
+      <c r="F145" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>827</v>
+      </c>
+      <c r="F146" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>188</v>
+      </c>
+      <c r="B147" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147">
+        <v>99.2</v>
+      </c>
+      <c r="D147">
+        <v>0.01</v>
+      </c>
+      <c r="E147" t="s">
+        <v>828</v>
+      </c>
+      <c r="F147" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>829</v>
+      </c>
+      <c r="F148" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>830</v>
+      </c>
+      <c r="F149" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>191</v>
+      </c>
+      <c r="B150" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150">
+        <v>81440</v>
+      </c>
+      <c r="D150">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E150" t="s">
+        <v>831</v>
+      </c>
+      <c r="F150" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151">
+        <v>81440</v>
+      </c>
+      <c r="D151">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E151" t="s">
+        <v>832</v>
+      </c>
+      <c r="F151" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" t="s">
+        <v>441</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>833</v>
+      </c>
+      <c r="F152" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>834</v>
+      </c>
+      <c r="F153" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>835</v>
+      </c>
+      <c r="F154" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" t="s">
+        <v>444</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>836</v>
+      </c>
+      <c r="F155" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>196</v>
+      </c>
+      <c r="B156" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>837</v>
+      </c>
+      <c r="F156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>838</v>
+      </c>
+      <c r="F157" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" t="s">
+        <v>451</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>839</v>
+      </c>
+      <c r="F158" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>840</v>
+      </c>
+      <c r="F159" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" t="s">
+        <v>453</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>841</v>
+      </c>
+      <c r="F160" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>455</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>842</v>
+      </c>
+      <c r="F161" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>455</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>843</v>
+      </c>
+      <c r="F162" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>207</v>
+      </c>
+      <c r="B163" t="s">
+        <v>456</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>844</v>
+      </c>
+      <c r="F163" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" t="s">
+        <v>457</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>845</v>
+      </c>
+      <c r="F164" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>846</v>
+      </c>
+      <c r="F165" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" t="s">
+        <v>459</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>847</v>
+      </c>
+      <c r="F166" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>211</v>
+      </c>
+      <c r="B167" t="s">
+        <v>460</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>848</v>
+      </c>
+      <c r="F167" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" t="s">
+        <v>461</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>849</v>
+      </c>
+      <c r="F168" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" t="s">
+        <v>462</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>850</v>
+      </c>
+      <c r="F169" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>216</v>
+      </c>
+      <c r="B170" t="s">
+        <v>465</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>851</v>
+      </c>
+      <c r="F170" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" t="s">
+        <v>467</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>852</v>
+      </c>
+      <c r="F171" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" t="s">
+        <v>468</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>853</v>
+      </c>
+      <c r="F172" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" t="s">
+        <v>469</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>854</v>
+      </c>
+      <c r="F173" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>221</v>
+      </c>
+      <c r="B174" t="s">
+        <v>470</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>855</v>
+      </c>
+      <c r="F174" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>223</v>
+      </c>
+      <c r="B175" t="s">
+        <v>472</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>856</v>
+      </c>
+      <c r="F175" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" t="s">
+        <v>473</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>857</v>
+      </c>
+      <c r="F176" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" t="s">
+        <v>475</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>858</v>
+      </c>
+      <c r="F177" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" t="s">
+        <v>475</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>860</v>
+      </c>
+      <c r="F178" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>475</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>859</v>
+      </c>
+      <c r="F179" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>227</v>
+      </c>
+      <c r="B180" t="s">
+        <v>476</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>861</v>
+      </c>
+      <c r="F180" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" t="s">
+        <v>477</v>
+      </c>
+      <c r="C181">
+        <v>3010</v>
+      </c>
+      <c r="D181">
+        <v>0.2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>862</v>
+      </c>
+      <c r="F181" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" t="s">
+        <v>479</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>863</v>
+      </c>
+      <c r="F182" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" t="s">
+        <v>480</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>864</v>
+      </c>
+      <c r="F183" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>232</v>
+      </c>
+      <c r="B184" t="s">
+        <v>481</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>865</v>
+      </c>
+      <c r="F184" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>233</v>
+      </c>
+      <c r="B185" t="s">
+        <v>482</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>866</v>
+      </c>
+      <c r="F185" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" t="s">
+        <v>484</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>867</v>
+      </c>
+      <c r="F186" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" t="s">
+        <v>485</v>
+      </c>
+      <c r="C187">
+        <v>552770</v>
+      </c>
+      <c r="D187">
+        <v>31.3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>868</v>
+      </c>
+      <c r="F187" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>237</v>
+      </c>
+      <c r="B188" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>869</v>
+      </c>
+      <c r="F188" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>238</v>
+      </c>
+      <c r="B189" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>870</v>
+      </c>
+      <c r="F189" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>240</v>
+      </c>
+      <c r="B190" t="s">
+        <v>489</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>871</v>
+      </c>
+      <c r="F190" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>243</v>
+      </c>
+      <c r="B191" t="s">
+        <v>492</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>872</v>
+      </c>
+      <c r="F191" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192" t="s">
+        <v>495</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>873</v>
+      </c>
+      <c r="F192" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>247</v>
+      </c>
+      <c r="B193" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>874</v>
+      </c>
+      <c r="F193" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194" t="s">
+        <v>497</v>
+      </c>
+      <c r="C194">
+        <v>5530</v>
+      </c>
+      <c r="D194">
+        <v>0.3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>875</v>
+      </c>
+      <c r="F194" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195" t="s">
+        <v>498</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>876</v>
+      </c>
+      <c r="F195" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" t="s">
+        <v>499</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>877</v>
+      </c>
+      <c r="F196" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{9728D77D-FDBD-4672-B995-67553790F7BE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1923,7 +6988,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1937,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +7114,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2077,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2133,7 +7198,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2161,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2175,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2189,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2231,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2245,7 +7310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2259,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2273,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2287,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2301,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2315,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2329,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2343,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2385,7 +7450,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2399,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2413,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2427,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2441,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2455,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2483,7 +7548,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2497,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2511,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +7604,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2553,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2567,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2581,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2595,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2623,7 +7688,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2637,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2651,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2679,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2693,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2707,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2735,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2763,7 +7828,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2777,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2791,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2805,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2819,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2833,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2847,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2861,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2875,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2903,7 +7968,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2917,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2931,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2945,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2959,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2987,7 +8052,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3001,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3015,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -3043,7 +8108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -3057,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3071,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3085,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3099,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3113,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3127,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3141,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3155,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3169,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3183,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3211,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3225,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3239,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3253,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3267,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3281,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3295,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3309,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3323,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3337,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3351,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3365,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3393,7 +8458,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3407,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3421,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3435,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3449,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3463,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3491,7 +8556,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3505,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3519,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3547,7 +8612,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3561,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3575,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3589,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3603,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3617,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3645,7 +8710,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3659,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3673,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3687,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3701,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3715,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3729,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3743,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3757,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3771,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3785,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3799,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3813,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3827,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3841,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3855,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3869,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3883,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3897,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3925,7 +8990,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3939,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3953,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3967,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3981,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3995,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4009,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4023,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4037,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4051,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4065,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4079,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4093,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4107,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4121,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4135,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4149,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4163,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4177,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4191,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4219,7 +9284,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4233,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4247,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4261,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4275,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4289,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4303,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4331,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4345,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4359,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4373,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4387,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4401,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -4415,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4429,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4443,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4457,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4471,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4485,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -4499,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4513,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -4541,7 +9606,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -4555,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -4583,7 +9648,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4597,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -4611,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -4625,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4639,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -4653,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -4667,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -4681,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -4695,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -4709,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -4723,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -4737,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -4751,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -4765,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -4779,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -4793,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -4807,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4821,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4835,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4849,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4863,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4877,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4891,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4905,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4919,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4933,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4947,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4961,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4975,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4989,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -5003,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -5017,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -5031,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -5045,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -5059,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -5073,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -5101,7 +10166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -5115,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -5129,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -5143,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -5157,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -5171,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -5185,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -5213,7 +10278,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -5227,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -5241,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -5255,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -5269,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -5283,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -5297,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -5311,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -5325,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -5339,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -5353,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -5381,7 +10446,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -5395,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -5410,13 +10475,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D250" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D250" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>